--- a/biology/Botanique/Apera_interrupta/Apera_interrupta.xlsx
+++ b/biology/Botanique/Apera_interrupta/Apera_interrupta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apera interrupta, l'agrostide interrompue, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Eurasie.
 Ce sont des plantes herbacées annuelles, cespiteuse ou à tiges solitaires, aux tiges (chaumes) dressées pouvant atteindre 70 cm de haut, et aux inflorescences en panicule. Le fruit est un caryopse à albumen liquide.
-Cette espèce est parfois considérée comme une mauvaise herbe des cultures, notamment aux États-Unis[2].
+Cette espèce est parfois considérée comme une mauvaise herbe des cultures, notamment aux États-Unis.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle d'Apera interrupta s'étend dans l'Ancien Monde :
 en Afrique du Nord : Égypte, Tunisie ;
 en Asie tempérée, du Proche-Orient (Israël, Liban, Syrie) et de l'Asie mineure (Turquie) à l'Asie centrale (Kazakhstan, Kirghizistan, Tadjikistan, Turkménistan, Ouzbékistan), jusqu'à l'Afghanistan, ainsi que dans la région du  Caucase (Arménie, Azerbaïdjan, Daghestan) ;
-dans la plus grande partie de l'Europe, de la France et du Portugal à l'Ukraine, la Russie et la Bulgarie, et de l'Espagne à la Scandinavie[3].
-L'espèce s'est naturalisée en Amérique du Nord (Canada, États-Unis) et en Amérique du Sud (Chili), ainsi qu'en Australie[3].
+dans la plus grande partie de l'Europe, de la France et du Portugal à l'Ukraine, la Russie et la Bulgarie, et de l'Espagne à la Scandinavie.
+L'espèce s'est naturalisée en Amérique du Nord (Canada, États-Unis) et en Amérique du Sud (Chili), ainsi qu'en Australie.
 </t>
         </is>
       </c>
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Agrestis interrupta (L.) Bubani
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agrestis interrupta (L.) Bubani
 Agrostis anemagrostis subsp. interrupta (L.) Syme
 Agrostis interrupta L.
 Agrostis spica-venti var. interrupta (L.) Hook.f.
@@ -559,9 +578,43 @@
 Apera spica-venti var. interrupta (L.) Beal
 Cynosurus splendens Ten. ex Roem. &amp; Schult.
 Milium interruptum (L.) Lag.
-Muhlenbergia interrupta (L.) Steud.
-Liste des variétés
-Selon Tropicos                                           (6 novembre 2017)[4] :
+Muhlenbergia interrupta (L.) Steud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apera_interrupta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apera_interrupta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (6 novembre 2017) :
 variété Apera interrupta var. humilis Sennen
 </t>
         </is>
